--- a/eval.xlsx
+++ b/eval.xlsx
@@ -62,9 +62,6 @@
     <t>4.</t>
   </si>
   <si>
-    <t>Získat statistiku znaků v sériích série: { stats: {A: 2, B: 0, _: 1}, fields: [A, A, _] }</t>
-  </si>
-  <si>
     <t>Získat hodnocení pro každou sérii ( hodnoceni[serie.eval] =&gt; 100 )</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>Získat statistiku znaků v sériích (série: { stats: {A: 2, B: 0, _: 1}, fields: [A, A, _] })</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I5:K7"/>
+      <selection activeCell="I5" sqref="I5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,18 +731,18 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -774,25 +774,25 @@
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="34">
         <f>IF(I5="_",N11+N14+N17,"")</f>
-        <v>6</v>
-      </c>
-      <c r="Q5" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="34" t="str">
         <f>IF(J5="_",N11+N15,"")</f>
-        <v>4</v>
-      </c>
-      <c r="R5" s="34">
+        <v/>
+      </c>
+      <c r="R5" s="34" t="str">
         <f>IF(K5="_",N11+N16+N18,"")</f>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>0</v>
@@ -817,15 +817,15 @@
       </c>
       <c r="P6" s="34">
         <f>IF(I6="_",N12+N14,"")</f>
-        <v>4</v>
-      </c>
-      <c r="Q6" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="34" t="str">
         <f>IF(J6="_",N12+N15+N17+N18,"")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="R6" s="34">
         <f>IF(K6="_",N12+N16,"")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -850,15 +850,15 @@
       </c>
       <c r="P7" s="34">
         <f>IF(I7="_",N13+N14+N18,"")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="34">
         <f>IF(J7="_",N13+N15,"")</f>
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="R7" s="34">
         <f>IF(K7="_",N13+N16+N17,"")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -919,28 +919,28 @@
         <v>0</v>
       </c>
       <c r="I11" s="20">
-        <f>LEN($L11)-LEN(SUBSTITUTE($L11,I$10,""))</f>
-        <v>0</v>
+        <f t="shared" ref="I11:K18" si="1">LEN($L11)-LEN(SUBSTITUTE($L11,I$10,""))</f>
+        <v>1</v>
       </c>
       <c r="J11" s="20">
-        <f>LEN($L11)-LEN(SUBSTITUTE($L11,J$10,""))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K11" s="20">
-        <f>LEN($L11)-LEN(SUBSTITUTE($L11,K$10,""))</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L11" s="21" t="str">
         <f>_xlfn.CONCAT(I5:K5)</f>
-        <v>___</v>
+        <v>_OX</v>
       </c>
       <c r="M11" s="1" t="str">
         <f>_xlfn.CONCAT(I11:K11)</f>
-        <v>003</v>
+        <v>111</v>
       </c>
       <c r="N11" s="1">
         <f>INDEX($E$13:$E$18,MATCH(M11,$A$13:$A$18,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -967,28 +967,28 @@
         <v>1</v>
       </c>
       <c r="I12" s="10">
-        <f>LEN($L12)-LEN(SUBSTITUTE($L12,I$10,""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="10">
-        <f>LEN($L12)-LEN(SUBSTITUTE($L12,J$10,""))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K12" s="10">
-        <f>LEN($L12)-LEN(SUBSTITUTE($L12,K$10,""))</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="L12" s="23" t="str">
         <f>_xlfn.CONCAT(I6:K6)</f>
-        <v>___</v>
+        <v>_O_</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f t="shared" ref="M12:M18" si="1">_xlfn.CONCAT(I12:K12)</f>
-        <v>003</v>
+        <f t="shared" ref="M12:M18" si="2">_xlfn.CONCAT(I12:K12)</f>
+        <v>012</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" ref="N12:N18" si="2">INDEX($E$13:$E$18,MATCH(M12,$A$13:$A$18,0))</f>
-        <v>2</v>
+        <f t="shared" ref="N12:N18" si="3">INDEX($E$13:$E$18,MATCH(M12,$A$13:$A$18,0))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="11">
-        <f>C5</f>
+        <f t="shared" ref="E13:E18" si="4">C5</f>
         <v>100</v>
       </c>
       <c r="F13" s="10"/>
@@ -1015,15 +1015,15 @@
         <v>2</v>
       </c>
       <c r="I13" s="10">
-        <f>LEN($L13)-LEN(SUBSTITUTE($L13,I$10,""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="10">
-        <f>LEN($L13)-LEN(SUBSTITUTE($L13,J$10,""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="10">
-        <f>LEN($L13)-LEN(SUBSTITUTE($L13,K$10,""))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L13" s="23" t="str">
@@ -1031,17 +1031,17 @@
         <v>___</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>003</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
-        <f t="shared" ref="A14:A18" si="3">_xlfn.CONCAT(B14:D14)</f>
+        <f t="shared" ref="A14:A15" si="5">_xlfn.CONCAT(B14:D14)</f>
         <v>021</v>
       </c>
       <c r="B14" s="9">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="11">
-        <f>C6</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F14" s="10"/>
@@ -1065,15 +1065,15 @@
         <v>0</v>
       </c>
       <c r="I14" s="20">
-        <f>LEN($L14)-LEN(SUBSTITUTE($L14,I$10,""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="20">
-        <f>LEN($L14)-LEN(SUBSTITUTE($L14,J$10,""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="20">
-        <f>LEN($L14)-LEN(SUBSTITUTE($L14,K$10,""))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L14" s="21" t="str">
@@ -1081,17 +1081,17 @@
         <v>___</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>003</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="B15" s="9">
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="11">
-        <f>C7</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F15" s="10"/>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="I15" s="10">
-        <f>LEN($L15)-LEN(SUBSTITUTE($L15,I$10,""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="10">
-        <f>LEN($L15)-LEN(SUBSTITUTE($L15,J$10,""))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="K15" s="10">
-        <f>LEN($L15)-LEN(SUBSTITUTE($L15,K$10,""))</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L15" s="23" t="str">
         <f>_xlfn.CONCAT(J5:J7)</f>
-        <v>___</v>
+        <v>OO_</v>
       </c>
       <c r="M15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>003</v>
+        <f t="shared" si="2"/>
+        <v>021</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1152,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="11">
-        <f>C8</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F16" s="10"/>
@@ -1161,28 +1161,28 @@
         <v>2</v>
       </c>
       <c r="I16" s="13">
-        <f>LEN($L16)-LEN(SUBSTITUTE($L16,I$10,""))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J16" s="13">
-        <f>LEN($L16)-LEN(SUBSTITUTE($L16,J$10,""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="13">
-        <f>LEN($L16)-LEN(SUBSTITUTE($L16,K$10,""))</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="L16" s="25" t="str">
         <f>_xlfn.CONCAT(K5:K7)</f>
-        <v>___</v>
+        <v>X__</v>
       </c>
       <c r="M16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>003</v>
+        <f t="shared" si="2"/>
+        <v>102</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1200,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="11">
-        <f>C9</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F17" s="10"/>
@@ -1211,28 +1211,28 @@
         <v>0</v>
       </c>
       <c r="I17" s="10">
-        <f>LEN($L17)-LEN(SUBSTITUTE($L17,I$10,""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="10">
-        <f>LEN($L17)-LEN(SUBSTITUTE($L17,J$10,""))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K17" s="10">
-        <f>LEN($L17)-LEN(SUBSTITUTE($L17,K$10,""))</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="L17" s="23" t="str">
         <f>_xlfn.CONCAT(I5,J6,K7)</f>
-        <v>___</v>
+        <v>_O_</v>
       </c>
       <c r="M17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>003</v>
+        <f t="shared" si="2"/>
+        <v>012</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="33">
-        <f>C10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F18" s="32"/>
@@ -1259,28 +1259,28 @@
         <v>1</v>
       </c>
       <c r="I18" s="13">
-        <f>LEN($L18)-LEN(SUBSTITUTE($L18,I$10,""))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J18" s="13">
-        <f>LEN($L18)-LEN(SUBSTITUTE($L18,J$10,""))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K18" s="13">
-        <f>LEN($L18)-LEN(SUBSTITUTE($L18,K$10,""))</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L18" s="25" t="str">
         <f>_xlfn.CONCAT(K5,J6,I7)</f>
-        <v>___</v>
+        <v>XO_</v>
       </c>
       <c r="M18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>003</v>
+        <f t="shared" si="2"/>
+        <v>111</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1312,23 +1312,23 @@
         <v>11</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="37" t="s">
         <v>17</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1344,10 +1344,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
         <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1355,10 +1355,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1366,10 +1366,10 @@
         <v>10</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1377,32 +1377,32 @@
         <v>11</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
         <v>26</v>
-      </c>
-      <c r="E33" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
         <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">

--- a/eval.xlsx
+++ b/eval.xlsx
@@ -714,7 +714,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,20 +771,20 @@
         <v>100</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="34" t="str">
         <f>IF(I5="_",N11+N14+N17,"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="Q5" s="34" t="str">
         <f>IF(J5="_",N11+N15,"")</f>
@@ -804,28 +804,28 @@
         <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="34" t="str">
         <f>IF(I6="_",N12+N14,"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="Q6" s="34" t="str">
         <f>IF(J6="_",N12+N15+N17+N18,"")</f>
         <v/>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="34" t="str">
         <f>IF(K6="_",N12+N16,"")</f>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -837,28 +837,28 @@
         <v>5</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O7" s="1">
         <v>2</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="34" t="str">
         <f>IF(I7="_",N13+N14+N18,"")</f>
-        <v>4</v>
-      </c>
-      <c r="Q7" s="34">
+        <v/>
+      </c>
+      <c r="Q7" s="34" t="str">
         <f>IF(J7="_",N13+N15,"")</f>
-        <v>52</v>
-      </c>
-      <c r="R7" s="34">
+        <v/>
+      </c>
+      <c r="R7" s="34" t="str">
         <f>IF(K7="_",N13+N16+N17,"")</f>
-        <v>8</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -924,23 +924,23 @@
       </c>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="21" t="str">
         <f>_xlfn.CONCAT(I5:K5)</f>
-        <v>_OX</v>
+        <v>OXO</v>
       </c>
       <c r="M11" s="1" t="str">
         <f>_xlfn.CONCAT(I11:K11)</f>
-        <v>111</v>
-      </c>
-      <c r="N11" s="1">
+        <v>120</v>
+      </c>
+      <c r="N11" s="1" t="e">
         <f>INDEX($E$13:$E$18,MATCH(M11,$A$13:$A$18,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
       </c>
       <c r="I12" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="1"/>
@@ -976,19 +976,19 @@
       </c>
       <c r="K12" s="10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="23" t="str">
         <f>_xlfn.CONCAT(I6:K6)</f>
-        <v>_O_</v>
+        <v>XXO</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" ref="M12:M18" si="2">_xlfn.CONCAT(I12:K12)</f>
-        <v>012</v>
-      </c>
-      <c r="N12" s="1">
+        <v>210</v>
+      </c>
+      <c r="N12" s="1" t="e">
         <f t="shared" ref="N12:N18" si="3">INDEX($E$13:$E$18,MATCH(M12,$A$13:$A$18,0))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1016,27 +1016,27 @@
       </c>
       <c r="I13" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" s="23" t="str">
         <f>_xlfn.CONCAT(I7:K7)</f>
-        <v>___</v>
+        <v>XOX</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>003</v>
-      </c>
-      <c r="N13" s="1">
+        <v>210</v>
+      </c>
+      <c r="N13" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1066,27 +1066,27 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14" s="21" t="str">
         <f>_xlfn.CONCAT(I5:I7)</f>
-        <v>___</v>
+        <v>OXX</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>003</v>
-      </c>
-      <c r="N14" s="1">
+        <v>210</v>
+      </c>
+      <c r="N14" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1114,27 +1114,27 @@
       </c>
       <c r="I15" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="23" t="str">
         <f>_xlfn.CONCAT(J5:J7)</f>
-        <v>OO_</v>
+        <v>XXO</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>021</v>
-      </c>
-      <c r="N15" s="1">
+        <v>210</v>
+      </c>
+      <c r="N15" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1166,23 +1166,23 @@
       </c>
       <c r="J16" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="13">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" s="25" t="str">
         <f>_xlfn.CONCAT(K5:K7)</f>
-        <v>X__</v>
+        <v>OOX</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="N16" s="1">
+        <v>120</v>
+      </c>
+      <c r="N16" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I17" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="1"/>
@@ -1220,19 +1220,19 @@
       </c>
       <c r="K17" s="10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" s="23" t="str">
         <f>_xlfn.CONCAT(I5,J6,K7)</f>
-        <v>_O_</v>
+        <v>OXX</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>012</v>
-      </c>
-      <c r="N17" s="1">
+        <v>210</v>
+      </c>
+      <c r="N17" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="I18" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="13">
         <f t="shared" si="1"/>
@@ -1268,19 +1268,19 @@
       </c>
       <c r="K18" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="25" t="str">
         <f>_xlfn.CONCAT(K5,J6,I7)</f>
-        <v>XO_</v>
+        <v>OXX</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-      <c r="N18" s="1">
+        <v>210</v>
+      </c>
+      <c r="N18" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
